--- a/input_test/dhw_test.xlsx
+++ b/input_test/dhw_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mattia\desktop\GIT\LoBi\input_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\OneDrive\Desktop\GIT\LoBi\input_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58410B33-F8EB-4FC5-A842-B4513BB3E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9CCCEB-4739-4757-A94E-391C65F68BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2610" windowWidth="26865" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Hour</t>
   </si>
   <si>
     <t>Profile</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.4</t>
   </si>
 </sst>
 </file>
@@ -94,8 +82,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -105,7 +92,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,208 +373,208 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
+      <c r="B9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
+      <c r="B11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
+      <c r="B12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
+      <c r="B13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
+      <c r="B15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
+      <c r="B17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
+      <c r="B19">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
+      <c r="B20">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
+      <c r="B21">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
+      <c r="B22">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
+      <c r="B23">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
+      <c r="B24">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25">
         <v>3</v>
       </c>
     </row>
